--- a/OrganisationProjetFinal.xlsx
+++ b/OrganisationProjetFinal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Taches</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Couche Service</t>
   </si>
   <si>
-    <t>CRUD produit</t>
-  </si>
-  <si>
-    <t>CRUD Client</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -57,18 +51,9 @@
     <t>controller client</t>
   </si>
   <si>
-    <t>controller commande</t>
-  </si>
-  <si>
     <t>Angular (app)</t>
   </si>
   <si>
-    <t xml:space="preserve">Page HTML </t>
-  </si>
-  <si>
-    <t>page CRUD PRODUIT CLIENT ADMIN</t>
-  </si>
-  <si>
     <t>public Produit updateProduit(Produit p);</t>
   </si>
   <si>
@@ -103,6 +88,27 @@
   </si>
   <si>
     <t>Clemence</t>
+  </si>
+  <si>
+    <t>Iclient Iadmin</t>
+  </si>
+  <si>
+    <t>CRUD toutes les classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier user </t>
+  </si>
+  <si>
+    <t>probleme lister</t>
+  </si>
+  <si>
+    <t>controller toutes les classes</t>
+  </si>
+  <si>
+    <t>Page Admin CRUD produit client</t>
+  </si>
+  <si>
+    <t>Page Accueil site client</t>
   </si>
 </sst>
 </file>
@@ -133,13 +139,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +146,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -219,31 +231,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,167 +541,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
+      <c r="A17" s="11"/>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/OrganisationProjetFinal.xlsx
+++ b/OrganisationProjetFinal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Taches</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>Page Accueil site client</t>
+  </si>
+  <si>
+    <t>Liste du panier avec quantite avec bouton valider</t>
+  </si>
+  <si>
+    <t>Adresse facturation livraison, moyen de paiment validation</t>
+  </si>
+  <si>
+    <t>A ajouter la partie visualisation des commandes</t>
+  </si>
+  <si>
+    <t>Bout de page liste produit</t>
+  </si>
+  <si>
+    <t>Bout de page  Connexion déjà client/admin</t>
+  </si>
+  <si>
+    <t>Bout de page Créer compte client</t>
+  </si>
+  <si>
+    <t>bout de page visualisation panier</t>
+  </si>
+  <si>
+    <t>Bout de page Page commande</t>
+  </si>
+  <si>
+    <t>Bout de page récapitulation des commandes</t>
+  </si>
+  <si>
+    <t>Bout de page Avis Client</t>
   </si>
 </sst>
 </file>
@@ -254,10 +284,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +620,7 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -607,7 +637,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -630,7 +660,7 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -651,7 +681,7 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -673,7 +703,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -701,41 +731,96 @@
         <v>6</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
